--- a/uploads/Volunteer_database_template.xlsx
+++ b/uploads/Volunteer_database_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\pj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E715169-1B61-4755-9AFB-D3F920C52A92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBFB896-E663-4F7F-A5F3-CCBE01874214}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volunteer Details" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Induction invite</t>
   </si>
@@ -234,16 +234,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>bbbbb</t>
-  </si>
-  <si>
-    <t>ccccc</t>
-  </si>
-  <si>
-    <t>male</t>
+    <t>eee</t>
   </si>
 </sst>
 </file>
@@ -409,10 +400,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -728,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,8 +847,8 @@
       </c>
     </row>
     <row r="2" spans="1:38" s="2" customFormat="1" ht="72.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A2" s="21">
-        <v>10015</v>
+      <c r="A2" s="20">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>46</v>
@@ -866,7 +857,7 @@
         <v>47</v>
       </c>
       <c r="F2" s="2">
-        <v>1144216</v>
+        <v>165654</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>48</v>
@@ -923,68 +914,31 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
-        <v>10016</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <v>1144218</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="16">
-        <v>37145</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" s="18">
-        <v>44866</v>
-      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="18"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -993,18 +947,98 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-      <c r="AI3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+    </row>
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="Z4" s="18"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+    </row>
+    <row r="6" spans="1:38" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="Z6" s="18"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1015,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,12 +1066,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
@@ -1100,40 +1134,37 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6">
-        <f>SUM(G6:H6)</f>
-        <v>9</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4</v>
-      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
